--- a/res/Pharmacology.xlsx
+++ b/res/Pharmacology.xlsx
@@ -1964,7 +1964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1987,13 +1987,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2002,6 +2026,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D189"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="C198" sqref="C198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:XFD312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4738,6 +4768,30 @@
         <v>277</v>
       </c>
       <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
